--- a/run_log/run_results/train_history/training_history_run_13.xlsx
+++ b/run_log/run_results/train_history/training_history_run_13.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.05867079272866249</v>
+        <v>0.1197518333792686</v>
       </c>
       <c r="B2">
-        <v>0.9884439706802368</v>
+        <v>0.9619067311286926</v>
       </c>
       <c r="C2">
-        <v>0.2038822025060654</v>
+        <v>0.01647702418267727</v>
       </c>
       <c r="D2">
-        <v>0.8911716938018799</v>
+        <v>0.9977655410766602</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.008691101334989071</v>
+        <v>0.0276475828140974</v>
       </c>
       <c r="B3">
-        <v>0.9980878233909607</v>
+        <v>0.9950518608093262</v>
       </c>
       <c r="C3">
-        <v>0.1164957284927368</v>
+        <v>0.00886818952858448</v>
       </c>
       <c r="D3">
-        <v>0.9574857354164124</v>
+        <v>0.9982123970985413</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.003802224295213819</v>
+        <v>0.01758970879018307</v>
       </c>
       <c r="B4">
-        <v>0.9987529516220093</v>
+        <v>0.9953539967536926</v>
       </c>
       <c r="C4">
-        <v>0.01113849505782127</v>
+        <v>0.002315406687557697</v>
       </c>
       <c r="D4">
-        <v>0.9991863369941711</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002265000250190496</v>
+        <v>0.01310524716973305</v>
       </c>
       <c r="B5">
-        <v>0.9993903040885925</v>
+        <v>0.9957506060600281</v>
       </c>
       <c r="C5">
-        <v>0.0542183443903923</v>
+        <v>0.00124630075879395</v>
       </c>
       <c r="D5">
-        <v>0.9823535680770874</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001539989374577999</v>
+        <v>0.01323879696428776</v>
       </c>
       <c r="B6">
-        <v>0.9995288848876953</v>
+        <v>0.9955050945281982</v>
       </c>
       <c r="C6">
-        <v>0.02502908743917942</v>
+        <v>0.001025006640702486</v>
       </c>
       <c r="D6">
-        <v>0.9949145913124084</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.00103352265432477</v>
+        <v>0.01138939335942268</v>
       </c>
       <c r="B7">
-        <v>0.9997783303260803</v>
+        <v>0.9960905909538269</v>
       </c>
       <c r="C7">
-        <v>0.01293817907571793</v>
+        <v>0.0004758846189361066</v>
       </c>
       <c r="D7">
-        <v>0.9995422959327698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001464108820073307</v>
+        <v>0.0118631711229682</v>
       </c>
       <c r="B8">
-        <v>0.9995011687278748</v>
+        <v>0.9958261847496033</v>
       </c>
       <c r="C8">
-        <v>0.006172834895551205</v>
+        <v>0.000398884090827778</v>
       </c>
       <c r="D8">
-        <v>0.9996440410614014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.000646742177195847</v>
+        <v>0.01131247542798519</v>
       </c>
       <c r="B9">
-        <v>0.9997506141662598</v>
+        <v>0.9961850047111511</v>
       </c>
       <c r="C9">
-        <v>0.00570964440703392</v>
+        <v>0.0004076385230291635</v>
       </c>
       <c r="D9">
-        <v>0.9995931386947632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0002507672179490328</v>
+        <v>0.0100646149367094</v>
       </c>
       <c r="B10">
-        <v>0.9999445676803589</v>
+        <v>0.9966005086898804</v>
       </c>
       <c r="C10">
-        <v>0.003357403445988894</v>
+        <v>0.0002068919275188819</v>
       </c>
       <c r="D10">
-        <v>0.9997965693473816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0003647692792583257</v>
+        <v>0.01094847824424505</v>
       </c>
       <c r="B11">
-        <v>0.9998337030410767</v>
+        <v>0.9961850047111511</v>
       </c>
       <c r="C11">
-        <v>0.00361996260471642</v>
+        <v>0.0001732196396915242</v>
       </c>
       <c r="D11">
-        <v>0.9997457265853882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>6.02979380346369E-05</v>
+        <v>0.01059538591653109</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.9961472153663635</v>
       </c>
       <c r="C12">
-        <v>0.002006649039685726</v>
+        <v>0.0003776536323130131</v>
       </c>
       <c r="D12">
-        <v>0.9996948838233948</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.001167407026514411</v>
+        <v>0.01070791110396385</v>
       </c>
       <c r="B13">
-        <v>0.9997506141662598</v>
+        <v>0.9961661100387573</v>
       </c>
       <c r="C13">
-        <v>0.002692585112527013</v>
+        <v>0.0001256289688171819</v>
       </c>
       <c r="D13">
-        <v>0.9995931386947632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1.151638116425602E-05</v>
+        <v>0.01059665251523256</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.9960716962814331</v>
       </c>
       <c r="C14">
-        <v>0.002839313121512532</v>
+        <v>0.0001186915542348288</v>
       </c>
       <c r="D14">
-        <v>0.9996948838233948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0002075894153676927</v>
+        <v>0.01083364617079496</v>
       </c>
       <c r="B15">
-        <v>0.9998891353607178</v>
+        <v>0.9959017038345337</v>
       </c>
       <c r="C15">
-        <v>0.0051955278031528</v>
+        <v>7.473116420442238E-05</v>
       </c>
       <c r="D15">
-        <v>0.9996440410614014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0007054150919429958</v>
+        <v>0.01033419277518988</v>
       </c>
       <c r="B16">
-        <v>0.9998337030410767</v>
+        <v>0.9960528016090393</v>
       </c>
       <c r="C16">
-        <v>0.005909483414143324</v>
+        <v>0.0002333047305000946</v>
       </c>
       <c r="D16">
-        <v>0.9997457265853882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0009176135063171387</v>
+        <v>0.01053417753428221</v>
       </c>
       <c r="B17">
-        <v>0.9998059868812561</v>
+        <v>0.9959583878517151</v>
       </c>
       <c r="C17">
-        <v>0.009450735524296761</v>
+        <v>8.618435822427273E-05</v>
       </c>
       <c r="D17">
-        <v>0.9996440410614014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.000135918497107923</v>
+        <v>0.01055614184588194</v>
       </c>
       <c r="B18">
-        <v>0.9999445676803589</v>
+        <v>0.9960528016090393</v>
       </c>
       <c r="C18">
-        <v>0.002638188190758228</v>
+        <v>0.0001234213705174625</v>
       </c>
       <c r="D18">
-        <v>0.9997457265853882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0003642085066530854</v>
+        <v>0.009628799743950367</v>
       </c>
       <c r="B19">
-        <v>0.9999722838401794</v>
+        <v>0.996543824672699</v>
       </c>
       <c r="C19">
-        <v>0.1034827828407288</v>
+        <v>0.0001448042748961598</v>
       </c>
       <c r="D19">
-        <v>0.9527562856674194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0003394381201360375</v>
+        <v>0.009384415112435818</v>
       </c>
       <c r="B20">
-        <v>0.9998891353607178</v>
+        <v>0.9965060949325562</v>
       </c>
       <c r="C20">
-        <v>0.002066692337393761</v>
+        <v>0.0001065137403202243</v>
       </c>
       <c r="D20">
-        <v>0.9997457265853882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1.742885979183484E-05</v>
+        <v>0.01095025427639484</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9961850047111511</v>
       </c>
       <c r="C21">
-        <v>0.00532642612233758</v>
+        <v>7.96353560872376E-05</v>
       </c>
       <c r="D21">
-        <v>0.999288022518158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1.280352989851963E-05</v>
+        <v>0.00979688111692667</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.996430516242981</v>
       </c>
       <c r="C22">
-        <v>0.002522633410990238</v>
+        <v>1.54764511535177E-05</v>
       </c>
       <c r="D22">
-        <v>0.9997457265853882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0007079600472934544</v>
+        <v>0.01047691982239485</v>
       </c>
       <c r="B23">
-        <v>0.9998059868812561</v>
+        <v>0.9961094856262207</v>
       </c>
       <c r="C23">
-        <v>0.01127802394330502</v>
+        <v>6.192500586621463E-05</v>
       </c>
       <c r="D23">
-        <v>0.9959825277328491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0002272188139613718</v>
+        <v>0.01068889629095793</v>
       </c>
       <c r="B24">
-        <v>0.9999168515205383</v>
+        <v>0.9960150122642517</v>
       </c>
       <c r="C24">
-        <v>0.01661353744566441</v>
+        <v>6.898287392687052E-05</v>
       </c>
       <c r="D24">
-        <v>0.9918124675750732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>6.779620889574289E-05</v>
+        <v>0.009886534884572029</v>
       </c>
       <c r="B25">
-        <v>0.9999445676803589</v>
+        <v>0.9963927268981934</v>
       </c>
       <c r="C25">
-        <v>0.01217462215572596</v>
+        <v>6.761521217413247E-05</v>
       </c>
       <c r="D25">
-        <v>0.9944060444831848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0007523690583184361</v>
+        <v>0.01028876006603241</v>
       </c>
       <c r="B26">
-        <v>0.9998891353607178</v>
+        <v>0.9963927268981934</v>
       </c>
       <c r="C26">
-        <v>0.02361701987683773</v>
+        <v>4.689432171289809E-05</v>
       </c>
       <c r="D26">
-        <v>0.9903376698493958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>2.745236452028621E-05</v>
+        <v>0.01087967865169048</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9959017038345337</v>
       </c>
       <c r="C27">
-        <v>0.008710834197700024</v>
+        <v>1.347345460089855E-05</v>
       </c>
       <c r="D27">
-        <v>0.9979658126831055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0002656341530382633</v>
+        <v>0.01002767868340015</v>
       </c>
       <c r="B28">
-        <v>0.9999445676803589</v>
+        <v>0.9960716962814331</v>
       </c>
       <c r="C28">
-        <v>0.2327105700969696</v>
+        <v>5.62663481105119E-05</v>
       </c>
       <c r="D28">
-        <v>0.945992648601532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.00012038503336953</v>
+        <v>0.009760917164385319</v>
       </c>
       <c r="B29">
-        <v>0.9999445676803589</v>
+        <v>0.9962227940559387</v>
       </c>
       <c r="C29">
-        <v>0.1840106546878815</v>
+        <v>6.476855105574941E-06</v>
       </c>
       <c r="D29">
-        <v>0.9591131210327148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0007903290097601712</v>
+        <v>0.01034883037209511</v>
       </c>
       <c r="B30">
-        <v>0.9998059868812561</v>
+        <v>0.9961094856262207</v>
       </c>
       <c r="C30">
-        <v>0.00404810206964612</v>
+        <v>4.765309495269321E-05</v>
       </c>
       <c r="D30">
-        <v>0.9996948838233948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>8.334252015629318E-06</v>
+        <v>0.01053190790116787</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9959017038345337</v>
       </c>
       <c r="C31">
-        <v>0.002847585128620267</v>
+        <v>4.065906614414416E-05</v>
       </c>
       <c r="D31">
-        <v>0.9996948838233948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1.511219807071029E-06</v>
+        <v>0.009352984838187695</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.996638298034668</v>
       </c>
       <c r="C32">
-        <v>0.002888750750571489</v>
+        <v>1.336712739430368E-05</v>
       </c>
       <c r="D32">
-        <v>0.9996948838233948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>8.007291398826055E-06</v>
+        <v>0.0106295133009553</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.9959583878517151</v>
       </c>
       <c r="C33">
-        <v>0.003147411625832319</v>
+        <v>3.139493855996989E-05</v>
       </c>
       <c r="D33">
-        <v>0.9997965693473816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1.640344976294728E-06</v>
+        <v>0.008538245223462582</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.99709153175354</v>
       </c>
       <c r="C34">
-        <v>0.004174340050667524</v>
+        <v>1.219619753101142E-05</v>
       </c>
       <c r="D34">
-        <v>0.9997965693473816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>2.67882933258079E-05</v>
+        <v>0.01035260781645775</v>
       </c>
       <c r="B35">
-        <v>0.9999722838401794</v>
+        <v>0.9961094856262207</v>
       </c>
       <c r="C35">
-        <v>0.004204385913908482</v>
+        <v>9.434774256078526E-06</v>
       </c>
       <c r="D35">
-        <v>0.9991354942321777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0002579705906100571</v>
+        <v>0.01062451489269733</v>
       </c>
       <c r="B36">
-        <v>0.9999168515205383</v>
+        <v>0.9961472153663635</v>
       </c>
       <c r="C36">
-        <v>0.01854922063648701</v>
+        <v>2.635655800986569E-05</v>
       </c>
       <c r="D36">
-        <v>0.991354763507843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>5.129447526996955E-05</v>
+        <v>0.00994833093136549</v>
       </c>
       <c r="B37">
-        <v>0.9999722838401794</v>
+        <v>0.9963549971580505</v>
       </c>
       <c r="C37">
-        <v>0.02251098118722439</v>
+        <v>3.242114644308458E-06</v>
       </c>
       <c r="D37">
-        <v>0.9918633103370667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0001345482451142743</v>
+        <v>0.009668433107435703</v>
       </c>
       <c r="B38">
-        <v>0.9999722838401794</v>
+        <v>0.9964494109153748</v>
       </c>
       <c r="C38">
-        <v>0.01411926373839378</v>
+        <v>6.651015610259492E-06</v>
       </c>
       <c r="D38">
-        <v>0.9938974976539612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0002740554919000715</v>
+        <v>0.009725398384034634</v>
       </c>
       <c r="B39">
-        <v>0.9998891353607178</v>
+        <v>0.9962794184684753</v>
       </c>
       <c r="C39">
-        <v>0.003882351098582149</v>
+        <v>9.608293112250976E-06</v>
       </c>
       <c r="D39">
-        <v>0.9997457265853882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.000503868970554322</v>
+        <v>0.009613302536308765</v>
       </c>
       <c r="B40">
-        <v>0.9998891353607178</v>
+        <v>0.9964116215705872</v>
       </c>
       <c r="C40">
-        <v>0.05210161209106445</v>
+        <v>5.880316621187376E-06</v>
       </c>
       <c r="D40">
-        <v>0.9767595529556274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>2.429037976980908E-06</v>
+        <v>0.009768443182110786</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9963549971580505</v>
       </c>
       <c r="C41">
-        <v>0.04364604130387306</v>
+        <v>6.880087312310934E-06</v>
       </c>
       <c r="D41">
-        <v>0.9798108339309692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0001019816336338408</v>
+        <v>0.01015400514006615</v>
       </c>
       <c r="B42">
-        <v>0.9999445676803589</v>
+        <v>0.9963172078132629</v>
       </c>
       <c r="C42">
-        <v>0.00499763386324048</v>
+        <v>7.980209375091363E-06</v>
       </c>
       <c r="D42">
-        <v>0.9995931386947632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0005240500904619694</v>
+        <v>0.01133520063012838</v>
       </c>
       <c r="B43">
-        <v>0.9999168515205383</v>
+        <v>0.9959394931793213</v>
       </c>
       <c r="C43">
-        <v>0.003265127073973417</v>
+        <v>1.384930783387972E-05</v>
       </c>
       <c r="D43">
-        <v>0.9997457265853882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>5.859368684468791E-05</v>
+        <v>0.009894312359392643</v>
       </c>
       <c r="B44">
-        <v>0.9999722838401794</v>
+        <v>0.9962983131408691</v>
       </c>
       <c r="C44">
-        <v>0.00477822870016098</v>
+        <v>1.271406199521152E-05</v>
       </c>
       <c r="D44">
-        <v>0.9997965693473816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0005172416567802429</v>
+        <v>0.01062796264886856</v>
       </c>
       <c r="B45">
-        <v>0.9998337030410767</v>
+        <v>0.9958828091621399</v>
       </c>
       <c r="C45">
-        <v>0.004107624292373657</v>
+        <v>3.416154504520819E-05</v>
       </c>
       <c r="D45">
-        <v>0.9996948838233948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>5.33996580998064E-06</v>
+        <v>0.00947289913892746</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9963927268981934</v>
       </c>
       <c r="C46">
-        <v>0.004508568439632654</v>
+        <v>1.839303331507836E-05</v>
       </c>
       <c r="D46">
-        <v>0.9996948838233948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.000136566290166229</v>
+        <v>0.009208904579281807</v>
       </c>
       <c r="B47">
-        <v>0.9999168515205383</v>
+        <v>0.996657133102417</v>
       </c>
       <c r="C47">
-        <v>0.0580238550901413</v>
+        <v>2.657950062712189E-05</v>
       </c>
       <c r="D47">
-        <v>0.9832180738449097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0004201926349196583</v>
+        <v>0.009058337658643723</v>
       </c>
       <c r="B48">
-        <v>0.9999445676803589</v>
+        <v>0.9966005086898804</v>
       </c>
       <c r="C48">
-        <v>0.01022843830287457</v>
+        <v>2.032283919106703E-05</v>
       </c>
       <c r="D48">
-        <v>0.9964401721954346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>9.310612767876592E-06</v>
+        <v>0.009793973527848721</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9964683055877686</v>
       </c>
       <c r="C49">
-        <v>0.01325842272490263</v>
+        <v>1.378701381327119E-05</v>
       </c>
       <c r="D49">
-        <v>0.9954230785369873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0001482026418671012</v>
+        <v>0.01044525112956762</v>
       </c>
       <c r="B50">
-        <v>0.9999445676803589</v>
+        <v>0.9960528016090393</v>
       </c>
       <c r="C50">
-        <v>0.005585324950516224</v>
+        <v>1.425484515493736E-05</v>
       </c>
       <c r="D50">
-        <v>0.999288022518158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>6.906099588377401E-05</v>
+        <v>0.009618457406759262</v>
       </c>
       <c r="B51">
-        <v>0.9999722838401794</v>
+        <v>0.9966194033622742</v>
       </c>
       <c r="C51">
-        <v>0.2913688123226166</v>
+        <v>2.051459887297824E-05</v>
       </c>
       <c r="D51">
-        <v>0.9439076781272888</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_13.xlsx
+++ b/run_log/run_results/train_history/training_history_run_13.xlsx
@@ -395,125 +395,125 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1197518333792686</v>
+        <v>0.0843278244137764</v>
       </c>
       <c r="B2">
-        <v>0.9619067311286926</v>
+        <v>0.979752242565155</v>
       </c>
       <c r="C2">
-        <v>0.01647702418267727</v>
+        <v>0.02071941457688808</v>
       </c>
       <c r="D2">
-        <v>0.9977655410766602</v>
+        <v>0.9967319965362549</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.0276475828140974</v>
+        <v>0.01335260644555092</v>
       </c>
       <c r="B3">
-        <v>0.9950518608093262</v>
+        <v>0.997761070728302</v>
       </c>
       <c r="C3">
-        <v>0.00886818952858448</v>
+        <v>0.0151249598711729</v>
       </c>
       <c r="D3">
-        <v>0.9982123970985413</v>
+        <v>0.9967319965362549</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01758970879018307</v>
+        <v>0.006928476504981518</v>
       </c>
       <c r="B4">
-        <v>0.9953539967536926</v>
+        <v>0.9984667897224426</v>
       </c>
       <c r="C4">
-        <v>0.002315406687557697</v>
+        <v>0.008190981112420559</v>
       </c>
       <c r="D4">
-        <v>0.9992551803588867</v>
+        <v>0.9970291256904602</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01310524716973305</v>
+        <v>0.004671342670917511</v>
       </c>
       <c r="B5">
-        <v>0.9957506060600281</v>
+        <v>0.9987831711769104</v>
       </c>
       <c r="C5">
-        <v>0.00124630075879395</v>
+        <v>0.002630555303767323</v>
       </c>
       <c r="D5">
-        <v>0.9995530843734741</v>
+        <v>0.998811662197113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01323879696428776</v>
+        <v>0.002070237649604678</v>
       </c>
       <c r="B6">
-        <v>0.9955050945281982</v>
+        <v>0.9994646310806274</v>
       </c>
       <c r="C6">
-        <v>0.001025006640702486</v>
+        <v>0.001330101396888494</v>
       </c>
       <c r="D6">
-        <v>0.9995530843734741</v>
+        <v>0.9994058012962341</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01138939335942268</v>
+        <v>0.002344866283237934</v>
       </c>
       <c r="B7">
-        <v>0.9960905909538269</v>
+        <v>0.9994402527809143</v>
       </c>
       <c r="C7">
-        <v>0.0004758846189361066</v>
+        <v>0.003938700072467327</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9994058012962341</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0118631711229682</v>
+        <v>0.001364344730973244</v>
       </c>
       <c r="B8">
-        <v>0.9958261847496033</v>
+        <v>0.9996592998504639</v>
       </c>
       <c r="C8">
-        <v>0.000398884090827778</v>
+        <v>0.001193636679090559</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9991087317466736</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.01131247542798519</v>
+        <v>0.001214924734085798</v>
       </c>
       <c r="B9">
-        <v>0.9961850047111511</v>
+        <v>0.9996836185455322</v>
       </c>
       <c r="C9">
-        <v>0.0004076385230291635</v>
+        <v>0.001525252358987927</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9991087317466736</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0100646149367094</v>
+        <v>0.001690750010311604</v>
       </c>
       <c r="B10">
-        <v>0.9966005086898804</v>
+        <v>0.9997079372406006</v>
       </c>
       <c r="C10">
-        <v>0.0002068919275188819</v>
+        <v>0.0002496922970749438</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -521,13 +521,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.01094847824424505</v>
+        <v>0.001630857354030013</v>
       </c>
       <c r="B11">
-        <v>0.9961850047111511</v>
+        <v>0.9996349811553955</v>
       </c>
       <c r="C11">
-        <v>0.0001732196396915242</v>
+        <v>0.0003392604412510991</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -535,27 +535,27 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.01059538591653109</v>
+        <v>0.0005658797454088926</v>
       </c>
       <c r="B12">
-        <v>0.9961472153663635</v>
+        <v>0.9998783469200134</v>
       </c>
       <c r="C12">
-        <v>0.0003776536323130131</v>
+        <v>0.0003017795679625124</v>
       </c>
       <c r="D12">
-        <v>0.9997020959854126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.01070791110396385</v>
+        <v>0.000611230090726167</v>
       </c>
       <c r="B13">
-        <v>0.9961661100387573</v>
+        <v>0.9997809529304504</v>
       </c>
       <c r="C13">
-        <v>0.0001256289688171819</v>
+        <v>8.377544145332649E-05</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.01059665251523256</v>
+        <v>0.0006752714980393648</v>
       </c>
       <c r="B14">
-        <v>0.9960716962814331</v>
+        <v>0.9998053312301636</v>
       </c>
       <c r="C14">
-        <v>0.0001186915542348288</v>
+        <v>0.0001135682323365472</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.01083364617079496</v>
+        <v>0.000718479510396719</v>
       </c>
       <c r="B15">
-        <v>0.9959017038345337</v>
+        <v>0.9999026656150818</v>
       </c>
       <c r="C15">
-        <v>7.473116420442238E-05</v>
+        <v>1.963444628927391E-05</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.01033419277518988</v>
+        <v>0.0002554840466473252</v>
       </c>
       <c r="B16">
-        <v>0.9960528016090393</v>
+        <v>0.9999269843101501</v>
       </c>
       <c r="C16">
-        <v>0.0002333047305000946</v>
+        <v>1.591157342772931E-05</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -605,27 +605,27 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.01053417753428221</v>
+        <v>0.0007509626448154449</v>
       </c>
       <c r="B17">
-        <v>0.9959583878517151</v>
+        <v>0.9998053312301636</v>
       </c>
       <c r="C17">
-        <v>8.618435822427273E-05</v>
+        <v>0.0003228774294257164</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9997029304504395</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.01055614184588194</v>
+        <v>0.001732100965455174</v>
       </c>
       <c r="B18">
-        <v>0.9960528016090393</v>
+        <v>0.9996836185455322</v>
       </c>
       <c r="C18">
-        <v>0.0001234213705174625</v>
+        <v>3.913978434866294E-05</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.009628799743950367</v>
+        <v>0.0006746989674866199</v>
       </c>
       <c r="B19">
-        <v>0.996543824672699</v>
+        <v>0.9999026656150818</v>
       </c>
       <c r="C19">
-        <v>0.0001448042748961598</v>
+        <v>7.824574277037755E-05</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -647,41 +647,41 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.009384415112435818</v>
+        <v>0.0002382063103141263</v>
       </c>
       <c r="B20">
-        <v>0.9965060949325562</v>
+        <v>0.9999513030052185</v>
       </c>
       <c r="C20">
-        <v>0.0001065137403202243</v>
+        <v>0.0005907302838750184</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9997029304504395</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.01095025427639484</v>
+        <v>9.719676017994061E-05</v>
       </c>
       <c r="B21">
-        <v>0.9961850047111511</v>
+        <v>0.9999756813049316</v>
       </c>
       <c r="C21">
-        <v>7.96353560872376E-05</v>
+        <v>0.0004244929878041148</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9997029304504395</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.00979688111692667</v>
+        <v>0.0001249003398697823</v>
       </c>
       <c r="B22">
-        <v>0.996430516242981</v>
+        <v>0.9999756813049316</v>
       </c>
       <c r="C22">
-        <v>1.54764511535177E-05</v>
+        <v>6.544911684613908E-06</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.01047691982239485</v>
+        <v>0.0009586556116119027</v>
       </c>
       <c r="B23">
-        <v>0.9961094856262207</v>
+        <v>0.9997809529304504</v>
       </c>
       <c r="C23">
-        <v>6.192500586621463E-05</v>
+        <v>4.356679255579365E-06</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.01068889629095793</v>
+        <v>0.0003222534141968936</v>
       </c>
       <c r="B24">
-        <v>0.9960150122642517</v>
+        <v>0.9998783469200134</v>
       </c>
       <c r="C24">
-        <v>6.898287392687052E-05</v>
+        <v>3.949335223296657E-06</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.009886534884572029</v>
+        <v>0.000905812019482255</v>
       </c>
       <c r="B25">
-        <v>0.9963927268981934</v>
+        <v>0.9998296499252319</v>
       </c>
       <c r="C25">
-        <v>6.761521217413247E-05</v>
+        <v>3.876133268931881E-05</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.01028876006603241</v>
+        <v>0.0007430652040056884</v>
       </c>
       <c r="B26">
-        <v>0.9963927268981934</v>
+        <v>0.9998539686203003</v>
       </c>
       <c r="C26">
-        <v>4.689432171289809E-05</v>
+        <v>1.355701351712923E-05</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.01087967865169048</v>
+        <v>0.0002487579768057913</v>
       </c>
       <c r="B27">
-        <v>0.9959017038345337</v>
+        <v>0.9999269843101501</v>
       </c>
       <c r="C27">
-        <v>1.347345460089855E-05</v>
+        <v>4.913151201435539E-07</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.01002767868340015</v>
+        <v>0.001461408683098853</v>
       </c>
       <c r="B28">
-        <v>0.9960716962814331</v>
+        <v>0.9997566342353821</v>
       </c>
       <c r="C28">
-        <v>5.62663481105119E-05</v>
+        <v>4.822021537620458E-07</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.009760917164385319</v>
+        <v>0.000206840006285347</v>
       </c>
       <c r="B29">
-        <v>0.9962227940559387</v>
+        <v>0.9999269843101501</v>
       </c>
       <c r="C29">
-        <v>6.476855105574941E-06</v>
+        <v>9.426095175513183E-07</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,27 +787,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.01034883037209511</v>
+        <v>0.0005499968538060784</v>
       </c>
       <c r="B30">
-        <v>0.9961094856262207</v>
+        <v>0.9998053312301636</v>
       </c>
       <c r="C30">
-        <v>4.765309495269321E-05</v>
+        <v>0.001929121208377182</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9997029304504395</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.01053190790116787</v>
+        <v>0.0005400101072154939</v>
       </c>
       <c r="B31">
-        <v>0.9959017038345337</v>
+        <v>0.9998539686203003</v>
       </c>
       <c r="C31">
-        <v>4.065906614414416E-05</v>
+        <v>2.83778695120418E-06</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.009352984838187695</v>
+        <v>0.0003833342925645411</v>
       </c>
       <c r="B32">
-        <v>0.996638298034668</v>
+        <v>0.9999026656150818</v>
       </c>
       <c r="C32">
-        <v>1.336712739430368E-05</v>
+        <v>2.175489680666942E-05</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0106295133009553</v>
+        <v>0.000615773256868124</v>
       </c>
       <c r="B33">
-        <v>0.9959583878517151</v>
+        <v>0.9998783469200134</v>
       </c>
       <c r="C33">
-        <v>3.139493855996989E-05</v>
+        <v>4.279997938283486E-06</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.008538245223462582</v>
+        <v>0.0002531058562453836</v>
       </c>
       <c r="B34">
-        <v>0.99709153175354</v>
+        <v>0.9999026656150818</v>
       </c>
       <c r="C34">
-        <v>1.219619753101142E-05</v>
+        <v>1.17589911496907E-06</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.01035260781645775</v>
+        <v>0.000520341913215816</v>
       </c>
       <c r="B35">
-        <v>0.9961094856262207</v>
+        <v>0.9999269843101501</v>
       </c>
       <c r="C35">
-        <v>9.434774256078526E-06</v>
+        <v>3.512630257773708E-07</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.01062451489269733</v>
+        <v>0.0003840986173599958</v>
       </c>
       <c r="B36">
-        <v>0.9961472153663635</v>
+        <v>0.9998539686203003</v>
       </c>
       <c r="C36">
-        <v>2.635655800986569E-05</v>
+        <v>5.758133738709148E-07</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.00994833093136549</v>
+        <v>0.0001344294869340956</v>
       </c>
       <c r="B37">
-        <v>0.9963549971580505</v>
+        <v>0.9999513030052185</v>
       </c>
       <c r="C37">
-        <v>3.242114644308458E-06</v>
+        <v>6.366881848407502E-07</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.009668433107435703</v>
+        <v>8.463999984087422E-05</v>
       </c>
       <c r="B38">
-        <v>0.9964494109153748</v>
+        <v>0.9999756813049316</v>
       </c>
       <c r="C38">
-        <v>6.651015610259492E-06</v>
+        <v>3.488395350359497E-08</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.009725398384034634</v>
+        <v>0.0003258000942878425</v>
       </c>
       <c r="B39">
-        <v>0.9962794184684753</v>
+        <v>0.9999513030052185</v>
       </c>
       <c r="C39">
-        <v>9.608293112250976E-06</v>
+        <v>6.650922301787432E-08</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.009613302536308765</v>
+        <v>0.0008395403274334967</v>
       </c>
       <c r="B40">
-        <v>0.9964116215705872</v>
+        <v>0.9998783469200134</v>
       </c>
       <c r="C40">
-        <v>5.880316621187376E-06</v>
+        <v>3.503868697407597E-07</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.009768443182110786</v>
+        <v>0.0009779466781765223</v>
       </c>
       <c r="B41">
-        <v>0.9963549971580505</v>
+        <v>0.9998783469200134</v>
       </c>
       <c r="C41">
-        <v>6.880087312310934E-06</v>
+        <v>1.967914897704759E-07</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.01015400514006615</v>
+        <v>9.595196752343327E-05</v>
       </c>
       <c r="B42">
-        <v>0.9963172078132629</v>
+        <v>0.9999756813049316</v>
       </c>
       <c r="C42">
-        <v>7.980209375091363E-06</v>
+        <v>1.359487953322969E-07</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.01133520063012838</v>
+        <v>0.0001290240325033665</v>
       </c>
       <c r="B43">
-        <v>0.9959394931793213</v>
+        <v>0.9999026656150818</v>
       </c>
       <c r="C43">
-        <v>1.384930783387972E-05</v>
+        <v>9.214803498025503E-08</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.009894312359392643</v>
+        <v>0.0003877757990267128</v>
       </c>
       <c r="B44">
-        <v>0.9962983131408691</v>
+        <v>0.9999513030052185</v>
       </c>
       <c r="C44">
-        <v>1.271406199521152E-05</v>
+        <v>6.714410005770333E-08</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.01062796264886856</v>
+        <v>2.724278238019906E-05</v>
       </c>
       <c r="B45">
-        <v>0.9958828091621399</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>3.416154504520819E-05</v>
+        <v>8.49974313155144E-09</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.00947289913892746</v>
+        <v>0.0004350824747234583</v>
       </c>
       <c r="B46">
-        <v>0.9963927268981934</v>
+        <v>0.9999269843101501</v>
       </c>
       <c r="C46">
-        <v>1.839303331507836E-05</v>
+        <v>5.373336080083391E-06</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.009208904579281807</v>
+        <v>0.0009376524249091744</v>
       </c>
       <c r="B47">
-        <v>0.996657133102417</v>
+        <v>0.9998296499252319</v>
       </c>
       <c r="C47">
-        <v>2.657950062712189E-05</v>
+        <v>3.11507619699114E-06</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.009058337658643723</v>
+        <v>0.0001457601611036807</v>
       </c>
       <c r="B48">
-        <v>0.9966005086898804</v>
+        <v>0.9999269843101501</v>
       </c>
       <c r="C48">
-        <v>2.032283919106703E-05</v>
+        <v>4.54628747093011E-07</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.009793973527848721</v>
+        <v>0.0001182894775411114</v>
       </c>
       <c r="B49">
-        <v>0.9964683055877686</v>
+        <v>0.9999756813049316</v>
       </c>
       <c r="C49">
-        <v>1.378701381327119E-05</v>
+        <v>4.249876006667819E-09</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.01044525112956762</v>
+        <v>0.0004442113277036697</v>
       </c>
       <c r="B50">
-        <v>0.9960528016090393</v>
+        <v>0.9998539686203003</v>
       </c>
       <c r="C50">
-        <v>1.425484515493736E-05</v>
+        <v>5.556599447231747E-08</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.009618457406759262</v>
+        <v>6.495912384707481E-05</v>
       </c>
       <c r="B51">
-        <v>0.9966194033622742</v>
+        <v>0.9999756813049316</v>
       </c>
       <c r="C51">
-        <v>2.051459887297824E-05</v>
+        <v>5.400802294275309E-08</v>
       </c>
       <c r="D51">
         <v>1</v>

--- a/run_log/run_results/train_history/training_history_run_13.xlsx
+++ b/run_log/run_results/train_history/training_history_run_13.xlsx
@@ -395,125 +395,125 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.0843278244137764</v>
+        <v>0.06414394825696945</v>
       </c>
       <c r="B2">
-        <v>0.979752242565155</v>
+        <v>0.9805817008018494</v>
       </c>
       <c r="C2">
-        <v>0.02071941457688808</v>
+        <v>0.003310504369437695</v>
       </c>
       <c r="D2">
-        <v>0.9967319965362549</v>
+        <v>0.9994794726371765</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01335260644555092</v>
+        <v>0.01024373713880777</v>
       </c>
       <c r="B3">
-        <v>0.997761070728302</v>
+        <v>0.9979604482650757</v>
       </c>
       <c r="C3">
-        <v>0.0151249598711729</v>
+        <v>0.002520929789170623</v>
       </c>
       <c r="D3">
-        <v>0.9967319965362549</v>
+        <v>0.9994794726371765</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.006928476504981518</v>
+        <v>0.006017731502652168</v>
       </c>
       <c r="B4">
-        <v>0.9984667897224426</v>
+        <v>0.9985978007316589</v>
       </c>
       <c r="C4">
-        <v>0.008190981112420559</v>
+        <v>0.0008317870087921619</v>
       </c>
       <c r="D4">
-        <v>0.9970291256904602</v>
+        <v>0.9998264908790588</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.004671342670917511</v>
+        <v>0.003417884465306997</v>
       </c>
       <c r="B5">
-        <v>0.9987831711769104</v>
+        <v>0.9991501569747925</v>
       </c>
       <c r="C5">
-        <v>0.002630555303767323</v>
+        <v>0.0006752578774467111</v>
       </c>
       <c r="D5">
-        <v>0.998811662197113</v>
+        <v>0.999884307384491</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002070237649604678</v>
+        <v>0.002150098793208599</v>
       </c>
       <c r="B6">
-        <v>0.9994646310806274</v>
+        <v>0.9995113611221313</v>
       </c>
       <c r="C6">
-        <v>0.001330101396888494</v>
+        <v>0.0001991159369936213</v>
       </c>
       <c r="D6">
-        <v>0.9994058012962341</v>
+        <v>0.9998264908790588</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.002344866283237934</v>
+        <v>0.001314928871579468</v>
       </c>
       <c r="B7">
-        <v>0.9994402527809143</v>
+        <v>0.9996600747108459</v>
       </c>
       <c r="C7">
-        <v>0.003938700072467327</v>
+        <v>5.622482058242895E-05</v>
       </c>
       <c r="D7">
-        <v>0.9994058012962341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001364344730973244</v>
+        <v>0.001312813838012516</v>
       </c>
       <c r="B8">
-        <v>0.9996592998504639</v>
+        <v>0.9997025728225708</v>
       </c>
       <c r="C8">
-        <v>0.001193636679090559</v>
+        <v>7.380757597275078E-05</v>
       </c>
       <c r="D8">
-        <v>0.9991087317466736</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001214924734085798</v>
+        <v>0.001131516881287098</v>
       </c>
       <c r="B9">
-        <v>0.9996836185455322</v>
+        <v>0.9997662901878357</v>
       </c>
       <c r="C9">
-        <v>0.001525252358987927</v>
+        <v>0.0002006521390285343</v>
       </c>
       <c r="D9">
-        <v>0.9991087317466736</v>
+        <v>0.9998264908790588</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.001690750010311604</v>
+        <v>0.001083581824786961</v>
       </c>
       <c r="B10">
-        <v>0.9997079372406006</v>
+        <v>0.9997237920761108</v>
       </c>
       <c r="C10">
-        <v>0.0002496922970749438</v>
+        <v>2.121128090948332E-05</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -521,13 +521,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001630857354030013</v>
+        <v>0.0007308748317882419</v>
       </c>
       <c r="B11">
-        <v>0.9996349811553955</v>
+        <v>0.9997662901878357</v>
       </c>
       <c r="C11">
-        <v>0.0003392604412510991</v>
+        <v>1.265031983166409E-06</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -535,13 +535,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0005658797454088926</v>
+        <v>0.001217738958075643</v>
       </c>
       <c r="B12">
-        <v>0.9998783469200134</v>
+        <v>0.9997875690460205</v>
       </c>
       <c r="C12">
-        <v>0.0003017795679625124</v>
+        <v>4.983010057912907E-07</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.000611230090726167</v>
+        <v>0.000476664979942143</v>
       </c>
       <c r="B13">
-        <v>0.9997809529304504</v>
+        <v>0.9998300075531006</v>
       </c>
       <c r="C13">
-        <v>8.377544145332649E-05</v>
+        <v>5.235870048636571E-07</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0006752714980393648</v>
+        <v>7.042202196316794E-05</v>
       </c>
       <c r="B14">
-        <v>0.9998053312301636</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C14">
-        <v>0.0001135682323365472</v>
+        <v>1.075793250038259E-07</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.000718479510396719</v>
+        <v>0.0007841288461349905</v>
       </c>
       <c r="B15">
-        <v>0.9999026656150818</v>
+        <v>0.9998087882995605</v>
       </c>
       <c r="C15">
-        <v>1.963444628927391E-05</v>
+        <v>4.218784965814848E-08</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0002554840466473252</v>
+        <v>0.001342142815701663</v>
       </c>
       <c r="B16">
-        <v>0.9999269843101501</v>
+        <v>0.9997662901878357</v>
       </c>
       <c r="C16">
-        <v>1.591157342772931E-05</v>
+        <v>1.468345180910546E-05</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -605,27 +605,27 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0007509626448154449</v>
+        <v>0.000276384613243863</v>
       </c>
       <c r="B17">
-        <v>0.9998053312301636</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C17">
-        <v>0.0003228774294257164</v>
+        <v>1.209832021231705E-06</v>
       </c>
       <c r="D17">
-        <v>0.9997029304504395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.001732100965455174</v>
+        <v>0.0005018216324970126</v>
       </c>
       <c r="B18">
-        <v>0.9996836185455322</v>
+        <v>0.9998087882995605</v>
       </c>
       <c r="C18">
-        <v>3.913978434866294E-05</v>
+        <v>1.119099465540785E-06</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0006746989674866199</v>
+        <v>0.0003714240156114101</v>
       </c>
       <c r="B19">
-        <v>0.9999026656150818</v>
+        <v>0.9998512864112854</v>
       </c>
       <c r="C19">
-        <v>7.824574277037755E-05</v>
+        <v>1.598033882999061E-08</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -647,41 +647,41 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0002382063103141263</v>
+        <v>0.0006294162012636662</v>
       </c>
       <c r="B20">
-        <v>0.9999513030052185</v>
+        <v>0.9998512864112854</v>
       </c>
       <c r="C20">
-        <v>0.0005907302838750184</v>
+        <v>1.633759261210344E-08</v>
       </c>
       <c r="D20">
-        <v>0.9997029304504395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>9.719676017994061E-05</v>
+        <v>0.0001296165864914656</v>
       </c>
       <c r="B21">
-        <v>0.9999756813049316</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C21">
-        <v>0.0004244929878041148</v>
+        <v>1.486019846197451E-05</v>
       </c>
       <c r="D21">
-        <v>0.9997029304504395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0001249003398697823</v>
+        <v>0.0003832871443592012</v>
       </c>
       <c r="B22">
-        <v>0.9999756813049316</v>
+        <v>0.9999150037765503</v>
       </c>
       <c r="C22">
-        <v>6.544911684613908E-06</v>
+        <v>1.090185719476722E-06</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0009586556116119027</v>
+        <v>0.000565042719244957</v>
       </c>
       <c r="B23">
-        <v>0.9997809529304504</v>
+        <v>0.9998512864112854</v>
       </c>
       <c r="C23">
-        <v>4.356679255579365E-06</v>
+        <v>7.335787586271181E-07</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0003222534141968936</v>
+        <v>0.0001239280245499685</v>
       </c>
       <c r="B24">
-        <v>0.9998783469200134</v>
+        <v>0.9999575018882751</v>
       </c>
       <c r="C24">
-        <v>3.949335223296657E-06</v>
+        <v>5.421972204544545E-08</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.000905812019482255</v>
+        <v>0.0006511447136290371</v>
       </c>
       <c r="B25">
-        <v>0.9998296499252319</v>
+        <v>0.9998087882995605</v>
       </c>
       <c r="C25">
-        <v>3.876133268931881E-05</v>
+        <v>3.288549654811845E-09</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0007430652040056884</v>
+        <v>0.0002296371967531741</v>
       </c>
       <c r="B26">
-        <v>0.9998539686203003</v>
+        <v>0.9999150037765503</v>
       </c>
       <c r="C26">
-        <v>1.355701351712923E-05</v>
+        <v>8.383232774633598E-09</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0002487579768057913</v>
+        <v>0.0001516987103968859</v>
       </c>
       <c r="B27">
-        <v>0.9999269843101501</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C27">
-        <v>4.913151201435539E-07</v>
+        <v>2.206162363904696E-09</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.001461408683098853</v>
+        <v>0.0003954574931412935</v>
       </c>
       <c r="B28">
-        <v>0.9997566342353821</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C28">
-        <v>4.822021537620458E-07</v>
+        <v>5.51543255511433E-10</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.000206840006285347</v>
+        <v>6.237801426323131E-05</v>
       </c>
       <c r="B29">
-        <v>0.9999269843101501</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C29">
-        <v>9.426095175513183E-07</v>
+        <v>1.172030250629064E-10</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,27 +787,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0005499968538060784</v>
+        <v>9.686122211860493E-05</v>
       </c>
       <c r="B30">
-        <v>0.9998053312301636</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C30">
-        <v>0.001929121208377182</v>
+        <v>2.757718532697684E-11</v>
       </c>
       <c r="D30">
-        <v>0.9997029304504395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0005400101072154939</v>
+        <v>7.637272938154638E-05</v>
       </c>
       <c r="B31">
-        <v>0.9998539686203003</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C31">
-        <v>2.83778695120418E-06</v>
+        <v>2.137230531440437E-10</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -815,27 +815,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0003833342925645411</v>
+        <v>0.0002198486181441694</v>
       </c>
       <c r="B32">
-        <v>0.9999026656150818</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C32">
-        <v>2.175489680666942E-05</v>
+        <v>0.0006672106101177633</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.999884307384491</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.000615773256868124</v>
+        <v>2.413172660453711E-05</v>
       </c>
       <c r="B33">
-        <v>0.9998783469200134</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C33">
-        <v>4.279997938283486E-06</v>
+        <v>1.406351124444427E-08</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0002531058562453836</v>
+        <v>0.0004056181060150266</v>
       </c>
       <c r="B34">
-        <v>0.9999026656150818</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C34">
-        <v>1.17589911496907E-06</v>
+        <v>1.068611199528391E-09</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.000520341913215816</v>
+        <v>0.000229976067203097</v>
       </c>
       <c r="B35">
-        <v>0.9999269843101501</v>
+        <v>0.9998937845230103</v>
       </c>
       <c r="C35">
-        <v>3.512630257773708E-07</v>
+        <v>6.698771358060185E-06</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0003840986173599958</v>
+        <v>0.0003630123101174831</v>
       </c>
       <c r="B36">
-        <v>0.9998539686203003</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C36">
-        <v>5.758133738709148E-07</v>
+        <v>4.494995931025869E-09</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0001344294869340956</v>
+        <v>0.0006045158370397985</v>
       </c>
       <c r="B37">
-        <v>0.9999513030052185</v>
+        <v>0.9998725056648254</v>
       </c>
       <c r="C37">
-        <v>6.366881848407502E-07</v>
+        <v>4.488059257568011E-09</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>8.463999984087422E-05</v>
+        <v>0.0001424906076863408</v>
       </c>
       <c r="B38">
-        <v>0.9999756813049316</v>
+        <v>0.9999575018882751</v>
       </c>
       <c r="C38">
-        <v>3.488395350359497E-08</v>
+        <v>1.137556604469125E-09</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0003258000942878425</v>
+        <v>0.000157424874487333</v>
       </c>
       <c r="B39">
-        <v>0.9999513030052185</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C39">
-        <v>6.650922301787432E-08</v>
+        <v>9.610296558548725E-09</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0008395403274334967</v>
+        <v>4.21263393945992E-05</v>
       </c>
       <c r="B40">
-        <v>0.9998783469200134</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C40">
-        <v>3.503868697407597E-07</v>
+        <v>1.172846623376245E-06</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0009779466781765223</v>
+        <v>1.816760232031811E-05</v>
       </c>
       <c r="B41">
-        <v>0.9998783469200134</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>1.967914897704759E-07</v>
+        <v>8.824637132143209E-10</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>9.595196752343327E-05</v>
+        <v>0.0002367770939599723</v>
       </c>
       <c r="B42">
-        <v>0.9999756813049316</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C42">
-        <v>1.359487953322969E-07</v>
+        <v>1.103086996745439E-10</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0001290240325033665</v>
+        <v>0.0001721723383525386</v>
       </c>
       <c r="B43">
-        <v>0.9999026656150818</v>
+        <v>0.9999575018882751</v>
       </c>
       <c r="C43">
-        <v>9.214803498025503E-08</v>
+        <v>1.402824434393324E-08</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0003877757990267128</v>
+        <v>0.0002920124970842153</v>
       </c>
       <c r="B44">
-        <v>0.9999513030052185</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C44">
-        <v>6.714410005770333E-08</v>
+        <v>1.189156240144484E-08</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>2.724278238019906E-05</v>
+        <v>0.0003606589161790907</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9998937845230103</v>
       </c>
       <c r="C45">
-        <v>8.49974313155144E-09</v>
+        <v>8.135228046768361E-10</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0004350824747234583</v>
+        <v>0.0003097125445492566</v>
       </c>
       <c r="B46">
-        <v>0.9999269843101501</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C46">
-        <v>5.373336080083391E-06</v>
+        <v>2.275116484096174E-10</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0009376524249091744</v>
+        <v>5.278584922052687E-06</v>
       </c>
       <c r="B47">
-        <v>0.9998296499252319</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>3.11507619699114E-06</v>
+        <v>6.204865787839964E-11</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0001457601611036807</v>
+        <v>0.001208834000863135</v>
       </c>
       <c r="B48">
-        <v>0.9999269843101501</v>
+        <v>0.9997875690460205</v>
       </c>
       <c r="C48">
-        <v>4.54628747093011E-07</v>
+        <v>2.724506430240581E-06</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0001182894775411114</v>
+        <v>0.0003222219238523394</v>
       </c>
       <c r="B49">
-        <v>0.9999756813049316</v>
+        <v>0.9999362826347351</v>
       </c>
       <c r="C49">
-        <v>4.249876006667819E-09</v>
+        <v>9.007789714132741E-08</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0004442113277036697</v>
+        <v>5.049924584454857E-05</v>
       </c>
       <c r="B50">
-        <v>0.9998539686203003</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C50">
-        <v>5.556599447231747E-08</v>
+        <v>1.247862035924641E-09</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>6.495912384707481E-05</v>
+        <v>0.0001154916317318566</v>
       </c>
       <c r="B51">
-        <v>0.9999756813049316</v>
+        <v>0.99997878074646</v>
       </c>
       <c r="C51">
-        <v>5.400802294275309E-08</v>
+        <v>1.43400091801027E-09</v>
       </c>
       <c r="D51">
         <v>1</v>
